--- a/HoI2Editor/Documents/Design/provinces.xlsx
+++ b/HoI2Editor/Documents/Design/provinces.xlsx
@@ -6512,9 +6512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="F420" sqref="F420"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7320,7 +7318,7 @@
         <v>451</v>
       </c>
       <c r="G35" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -7343,7 +7341,7 @@
         <v>452</v>
       </c>
       <c r="G36" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -7366,7 +7364,7 @@
         <v>453</v>
       </c>
       <c r="G37" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -8924,7 +8922,7 @@
         <v>519</v>
       </c>
       <c r="G105" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -8947,7 +8945,7 @@
         <v>1050</v>
       </c>
       <c r="G106" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -8970,7 +8968,7 @@
         <v>1051</v>
       </c>
       <c r="G107" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -12189,7 +12187,7 @@
         <v>1084</v>
       </c>
       <c r="G248" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -12212,7 +12210,7 @@
         <v>1085</v>
       </c>
       <c r="G249" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -12235,7 +12233,7 @@
         <v>1086</v>
       </c>
       <c r="G250" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -12258,7 +12256,7 @@
         <v>1087</v>
       </c>
       <c r="G251" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
@@ -12281,7 +12279,7 @@
         <v>1088</v>
       </c>
       <c r="G252" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -12304,7 +12302,7 @@
         <v>1089</v>
       </c>
       <c r="G253" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -12327,7 +12325,7 @@
         <v>1090</v>
       </c>
       <c r="G254" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -12350,7 +12348,7 @@
         <v>663</v>
       </c>
       <c r="G255" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">

--- a/HoI2Editor/Documents/Design/provinces.xlsx
+++ b/HoI2Editor/Documents/Design/provinces.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="360" windowWidth="27795" windowHeight="14085" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="360" windowWidth="27795" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5410" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5411" uniqueCount="2015">
   <si>
     <t>None</t>
   </si>
@@ -6247,6 +6247,9 @@
   <si>
     <t>SEAREGION_CENTRAL_MID-ATLANTIC_RIDGE</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AREA_PERNAMBUCO_PLAIN</t>
   </si>
 </sst>
 </file>
@@ -6602,9 +6605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H607"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H604" sqref="H604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20202,7 +20205,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>982</v>
       </c>
@@ -20225,7 +20228,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>983</v>
       </c>
@@ -20248,7 +20251,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>984</v>
       </c>
@@ -20271,7 +20274,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>985</v>
       </c>
@@ -20294,7 +20297,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>986</v>
       </c>
@@ -20317,7 +20320,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>987</v>
       </c>
@@ -20340,7 +20343,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>988</v>
       </c>
@@ -20363,7 +20366,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>989</v>
       </c>
@@ -20386,7 +20389,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>990</v>
       </c>
@@ -20409,7 +20412,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>991</v>
       </c>
@@ -20432,7 +20435,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>992</v>
       </c>
@@ -20455,7 +20458,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>993</v>
       </c>
@@ -20477,8 +20480,11 @@
       <c r="G604" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H604" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>994</v>
       </c>
@@ -20501,7 +20507,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>995</v>
       </c>
@@ -20524,7 +20530,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>996</v>
       </c>
@@ -20552,7 +20558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
